--- a/Assets/Document/配置工作流.xlsx
+++ b/Assets/Document/配置工作流.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>配置工作规则及流程</t>
   </si>
@@ -60,10 +60,19 @@
     <t>外键可以考虑给ConfigData加入一个外键列表表明哪些是外键 可能需要用到反射 在所有数据加载完成之后开始检索外键</t>
   </si>
   <si>
+    <t>10.配置数据分为两部分 一部分为editor程序集中的 一部分为runtime中的 runtime中的数据都只让读不能写</t>
+  </si>
+  <si>
+    <t>防止游戏中修改了本应该一直不变的配置数据</t>
+  </si>
+  <si>
     <t>流程</t>
   </si>
   <si>
     <t>1.游戏开始时会遍历所有的ConfigData实例并获取其数据与类型，将其存在ConfigData组件中</t>
+  </si>
+  <si>
+    <t>2.在编辑器环境下配置数据 并将数据导入到CSharp程序集的只读数据中</t>
   </si>
 </sst>
 </file>
@@ -72,11 +81,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -99,49 +108,73 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -152,32 +185,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -220,17 +230,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -238,13 +247,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -259,19 +261,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -283,55 +429,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -344,102 +442,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -450,6 +452,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -483,28 +500,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -527,21 +533,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -550,56 +541,67 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -615,97 +617,94 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1067,10 +1066,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K18"/>
+  <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K25" sqref="K25"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1079,37 +1078,37 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="3"/>
+      <c r="B3" s="2"/>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-    </row>
-    <row r="5" spans="1:11">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" t="s">
         <v>2</v>
       </c>
-      <c r="K5" s="5" t="s">
+      <c r="L5" s="4" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1123,12 +1122,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:12">
       <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="H8" s="4"/>
-      <c r="K8" s="5" t="s">
+      <c r="H8" s="3"/>
+      <c r="L8" s="4" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1152,34 +1151,47 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:12">
       <c r="A13" t="s">
         <v>12</v>
       </c>
-      <c r="K13" s="5" t="s">
+      <c r="L13" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="3" t="s">
+    <row r="14" spans="1:12">
+      <c r="A14" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="3"/>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" t="s">
+      <c r="L14" s="4" t="s">
         <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="2"/>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:G2"/>
     <mergeCell ref="A3:B4"/>
-    <mergeCell ref="A16:B17"/>
+    <mergeCell ref="A18:B19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Assets/Document/配置工作流.xlsx
+++ b/Assets/Document/配置工作流.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="28800" windowHeight="11940"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -60,7 +60,7 @@
     <t>外键可以考虑给ConfigData加入一个外键列表表明哪些是外键 可能需要用到反射 在所有数据加载完成之后开始检索外键</t>
   </si>
   <si>
-    <t>10.配置数据分为两部分 一部分为editor程序集中的 一部分为runtime中的 runtime中的数据都只让读不能写</t>
+    <t>10.编辑器在生成配置数据时会生成一个总表，这个总表也是scriptableobject，总表里会将所有container保存起来</t>
   </si>
   <si>
     <t>防止游戏中修改了本应该一直不变的配置数据</t>
@@ -69,10 +69,10 @@
     <t>流程</t>
   </si>
   <si>
-    <t>1.游戏开始时会遍历所有的ConfigData实例并获取其数据与类型，将其存在ConfigData组件中</t>
-  </si>
-  <si>
-    <t>2.在编辑器环境下配置数据 并将数据导入到CSharp程序集的只读数据中</t>
+    <t>1.游戏开始时通过遍历总表读取所有container并保存起来，总表路径配置在ConfigDataComponent的一个字符串字段中</t>
+  </si>
+  <si>
+    <t>3.在编辑器环境下配置数据 并将数据导入到CSharp程序集的只读数据中</t>
   </si>
 </sst>
 </file>
@@ -80,9 +80,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -109,12 +109,27 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -122,21 +137,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -144,48 +144,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -230,6 +206,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -261,6 +261,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -279,13 +285,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -297,151 +411,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -470,17 +470,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -500,6 +494,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -515,20 +518,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -560,10 +560,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -572,133 +572,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
